--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB312.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB312.xlsx
@@ -509,28 +509,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F2" t="n">
         <v>71.28962707519531</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.587935447692871e-08</v>
+        <v>3.725290298461914e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.384185791015625e-07</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2103729248046875</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.587935447692871e-08</v>
+        <v>3.725290298461914e-09</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0003962845948990434</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2103729248046949</v>
+        <v>0.2103732980498211</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F3" t="n">
         <v>-71.28962707519531</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.332993507385254e-08</v>
+        <v>-3.725290298461914e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.384185791015625e-07</v>
       </c>
       <c r="I3" t="n">
         <v>0.2103729248046875</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.332993507385254e-08</v>
+        <v>-3.725290298461914e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.0003958077577408403</v>
       </c>
       <c r="L3" t="n">
-        <v>0.210372924804697</v>
+        <v>0.2103732971521333</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +585,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E4" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F4" t="n">
-        <v>318.7630615234375</v>
+        <v>318.7631530761719</v>
       </c>
       <c r="G4" t="n">
-        <v>391.8504333496094</v>
+        <v>391.8505554199219</v>
       </c>
       <c r="H4" t="n">
-        <v>114.7062835693359</v>
+        <v>114.7063064575195</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.7369384765625</v>
+        <v>-2.736846923828125</v>
       </c>
       <c r="J4" t="n">
-        <v>6.001068115234375</v>
+        <v>6.001190185546875</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.182388305664062</v>
+        <v>-4.181968688964844</v>
       </c>
       <c r="L4" t="n">
-        <v>7.809995050416256</v>
+        <v>7.809832062410429</v>
       </c>
     </row>
     <row r="5">
@@ -623,28 +623,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E5" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F5" t="n">
-        <v>-327.0678100585938</v>
+        <v>-327.0677185058594</v>
       </c>
       <c r="G5" t="n">
-        <v>387.6119689941406</v>
+        <v>387.6118774414062</v>
       </c>
       <c r="H5" t="n">
-        <v>113.8262786865234</v>
+        <v>113.8262710571289</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.56781005859375</v>
+        <v>-5.567718505859375</v>
       </c>
       <c r="J5" t="n">
-        <v>1.762603759765625</v>
+        <v>1.76251220703125</v>
       </c>
       <c r="K5" t="n">
-        <v>-5.062393188476562</v>
+        <v>-5.062004089355469</v>
       </c>
       <c r="L5" t="n">
-        <v>7.728848921880383</v>
+        <v>7.728507232388064</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E6" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F6" t="n">
-        <v>329.1417236328125</v>
+        <v>329.1416931152344</v>
       </c>
       <c r="G6" t="n">
         <v>-393.8306579589844</v>
       </c>
       <c r="H6" t="n">
-        <v>115.7658081054688</v>
+        <v>115.7658004760742</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6417236328125</v>
+        <v>7.641693115234375</v>
       </c>
       <c r="J6" t="n">
         <v>-7.981292724609375</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.12286376953125</v>
+        <v>-3.122474670410156</v>
       </c>
       <c r="L6" t="n">
-        <v>11.48256294383961</v>
+        <v>11.48243681849267</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E7" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F7" t="n">
-        <v>-321.5569458007812</v>
+        <v>-321.5569763183594</v>
       </c>
       <c r="G7" t="n">
-        <v>-396.3865051269531</v>
+        <v>-396.3864135742188</v>
       </c>
       <c r="H7" t="n">
-        <v>116.1571884155273</v>
+        <v>116.1571960449219</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05694580078125</v>
+        <v>-0.056976318359375</v>
       </c>
       <c r="J7" t="n">
-        <v>-10.53713989257812</v>
+        <v>-10.53704833984375</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.731483459472656</v>
+        <v>-2.7310791015625</v>
       </c>
       <c r="L7" t="n">
-        <v>10.88556667470099</v>
+        <v>10.88537675397821</v>
       </c>
     </row>
     <row r="8">
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F8" t="n">
         <v>177.7788391113281</v>
       </c>
       <c r="G8" t="n">
-        <v>1.777644634246826</v>
+        <v>1.777685046195984</v>
       </c>
       <c r="H8" t="n">
         <v>121.0244140625</v>
@@ -752,13 +752,13 @@
         <v>4.510269165039062</v>
       </c>
       <c r="J8" t="n">
-        <v>1.777644634246826</v>
+        <v>1.777685046195984</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.0546875</v>
+        <v>-4.054290771484375</v>
       </c>
       <c r="L8" t="n">
-        <v>6.320050562252247</v>
+        <v>6.319807411963939</v>
       </c>
     </row>
     <row r="9">
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F9" t="n">
         <v>-177.3836975097656</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.291046857833862</v>
+        <v>-1.291016817092896</v>
       </c>
       <c r="H9" t="n">
-        <v>121.3975982666016</v>
+        <v>121.3976058959961</v>
       </c>
       <c r="I9" t="n">
         <v>-4.115127563476562</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.291046857833862</v>
+        <v>-1.291016817092896</v>
       </c>
       <c r="K9" t="n">
-        <v>-3.681503295898438</v>
+        <v>-3.681098937988281</v>
       </c>
       <c r="L9" t="n">
-        <v>5.670497629883845</v>
+        <v>5.670228273796362</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F10" t="n">
-        <v>-430.6081673646855</v>
+        <v>-430.6081341081676</v>
       </c>
       <c r="G10" t="n">
-        <v>385.1471071101146</v>
+        <v>385.1471250506312</v>
       </c>
       <c r="H10" t="n">
-        <v>-11.7779141807716</v>
+        <v>-11.77789422586176</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.339598270833505</v>
+        <v>-7.339565014315554</v>
       </c>
       <c r="J10" t="n">
-        <v>3.310498223395882</v>
+        <v>3.310516163912496</v>
       </c>
       <c r="K10" t="n">
-        <v>-5.651937618271603</v>
+        <v>-5.651521411683291</v>
       </c>
       <c r="L10" t="n">
-        <v>9.837352291402558</v>
+        <v>9.837094395074466</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F11" t="n">
-        <v>-504.6037230523082</v>
+        <v>-504.6036922395983</v>
       </c>
       <c r="G11" t="n">
-        <v>385.1471071101146</v>
+        <v>385.1471250506312</v>
       </c>
       <c r="H11" t="n">
-        <v>-11.7779141807716</v>
+        <v>-11.77789422586176</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.83515395845626</v>
+        <v>-9.835123145746309</v>
       </c>
       <c r="J11" t="n">
-        <v>3.310498223395882</v>
+        <v>3.310516163912496</v>
       </c>
       <c r="K11" t="n">
-        <v>-5.651937618271603</v>
+        <v>-5.651521411683291</v>
       </c>
       <c r="L11" t="n">
-        <v>11.81668526764079</v>
+        <v>11.81646558113869</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F12" t="n">
-        <v>-504.6037230523082</v>
+        <v>-504.6036922395983</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.015939682954754</v>
+        <v>-1.015934161677936</v>
       </c>
       <c r="H12" t="n">
-        <v>117.449647583529</v>
+        <v>117.4496600684146</v>
       </c>
       <c r="I12" t="n">
-        <v>-9.835168791026774</v>
+        <v>-9.835137978316823</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.015932053560223</v>
+        <v>-1.015926532283405</v>
       </c>
       <c r="K12" t="n">
-        <v>-7.629453978971029</v>
+        <v>-7.629044765569745</v>
       </c>
       <c r="L12" t="n">
-        <v>12.48884426609104</v>
+        <v>12.48856956607098</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F13" t="n">
-        <v>-427.104061806749</v>
+        <v>-427.1040669069122</v>
       </c>
       <c r="G13" t="n">
-        <v>-392.0720627836048</v>
+        <v>-392.071995657688</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.577755088701082</v>
+        <v>-5.577735581281075</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.835492712896951</v>
+        <v>-3.835497813060158</v>
       </c>
       <c r="J13" t="n">
-        <v>-10.2354538968861</v>
+        <v>-10.23538677096928</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5482214737989182</v>
+        <v>0.5486372328973914</v>
       </c>
       <c r="L13" t="n">
-        <v>10.94422530882386</v>
+        <v>10.94418515188059</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F14" t="n">
-        <v>-504.6037230523082</v>
+        <v>-504.6036922395983</v>
       </c>
       <c r="G14" t="n">
-        <v>-392.0720627836048</v>
+        <v>-392.071995657688</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.577755088701082</v>
+        <v>-5.577735581281075</v>
       </c>
       <c r="I14" t="n">
-        <v>-9.83515395845626</v>
+        <v>-9.835123145746309</v>
       </c>
       <c r="J14" t="n">
-        <v>-10.2354538968861</v>
+        <v>-10.23538677096928</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5482214737989182</v>
+        <v>0.5486372328973914</v>
       </c>
       <c r="L14" t="n">
-        <v>14.20546784326912</v>
+        <v>14.20541419518097</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F15" t="n">
-        <v>504.8782618480703</v>
+        <v>504.8782618716811</v>
       </c>
       <c r="G15" t="n">
-        <v>393.3492520973068</v>
+        <v>393.3492555247955</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.9401924268418</v>
+        <v>-10.94018760544313</v>
       </c>
       <c r="I15" t="n">
-        <v>10.10969275421837</v>
+        <v>10.10969277782914</v>
       </c>
       <c r="J15" t="n">
-        <v>11.51264321058801</v>
+        <v>11.51264663807672</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.814215864341804</v>
+        <v>-4.813814791264662</v>
       </c>
       <c r="L15" t="n">
-        <v>16.05999737445414</v>
+        <v>16.05987962345634</v>
       </c>
     </row>
     <row r="16">
@@ -1041,28 +1041,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F16" t="n">
-        <v>423.6442477994268</v>
+        <v>423.64424923338</v>
       </c>
       <c r="G16" t="n">
-        <v>393.3492520973068</v>
+        <v>393.3492555247955</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.9401924268418</v>
+        <v>-10.94018760544313</v>
       </c>
       <c r="I16" t="n">
-        <v>0.375678705574785</v>
+        <v>0.3756801395280149</v>
       </c>
       <c r="J16" t="n">
-        <v>11.51264321058801</v>
+        <v>11.51264663807672</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.814215864341804</v>
+        <v>-4.813814791264662</v>
       </c>
       <c r="L16" t="n">
-        <v>12.4843406943499</v>
+        <v>12.48418924179914</v>
       </c>
     </row>
     <row r="17">
@@ -1079,28 +1079,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F17" t="n">
-        <v>504.8782618480703</v>
+        <v>504.8782618716811</v>
       </c>
       <c r="G17" t="n">
-        <v>8.030557533493734</v>
+        <v>8.030520611718774</v>
       </c>
       <c r="H17" t="n">
-        <v>120.459364619738</v>
+        <v>120.4593518981344</v>
       </c>
       <c r="I17" t="n">
-        <v>10.10970758678889</v>
+        <v>10.10970761039965</v>
       </c>
       <c r="J17" t="n">
-        <v>8.030565162888266</v>
+        <v>8.030528241113306</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.619736942762017</v>
+        <v>-4.619352935849932</v>
       </c>
       <c r="L17" t="n">
-        <v>13.71269972492986</v>
+        <v>13.71254875451812</v>
       </c>
     </row>
     <row r="18">
@@ -1117,28 +1117,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F18" t="n">
-        <v>504.8782618480703</v>
+        <v>504.8782618716811</v>
       </c>
       <c r="G18" t="n">
-        <v>-383.0557954762185</v>
+        <v>-383.0557434783948</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.71488194685837</v>
+        <v>-1.714877937873226</v>
       </c>
       <c r="I18" t="n">
-        <v>10.10969275421837</v>
+        <v>10.10969277782914</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.21918658949977</v>
+        <v>-1.219134591676038</v>
       </c>
       <c r="K18" t="n">
-        <v>4.41109461564163</v>
+        <v>4.411494876305241</v>
       </c>
       <c r="L18" t="n">
-        <v>11.09729963697719</v>
+        <v>11.09745305276752</v>
       </c>
     </row>
     <row r="19">
@@ -1155,28 +1155,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F19" t="n">
-        <v>438.6065706706613</v>
+        <v>438.6065330973459</v>
       </c>
       <c r="G19" t="n">
-        <v>-383.0557954762185</v>
+        <v>-383.0557434783948</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.71488194685837</v>
+        <v>-1.714877937873226</v>
       </c>
       <c r="I19" t="n">
-        <v>15.33800157680929</v>
+        <v>15.33796400349388</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.21918658949977</v>
+        <v>-1.219134591676038</v>
       </c>
       <c r="K19" t="n">
-        <v>4.41109461564163</v>
+        <v>4.411494876305241</v>
       </c>
       <c r="L19" t="n">
-        <v>16.0062007990142</v>
+        <v>16.00627114504695</v>
       </c>
     </row>
   </sheetData>
